--- a/biology/Botanique/Paphinia_vermiculifera/Paphinia_vermiculifera.xlsx
+++ b/biology/Botanique/Paphinia_vermiculifera/Paphinia_vermiculifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia vermiculifera Gerlach &amp; Dressler est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et de la sous-tribu des Stanhopeinae, récoltée pour la première fois en 1976 au Panamá. 
 La première floraison en culture a eu lieu en juillet 2002. Les fleurs sont verdâtres fortement marquées de pourpre.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">vermiculiferus, a, um adj. latin : qui porte de petits vers. Référence aux deux excroissances du labelle.
 </t>
@@ -544,7 +558,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Differt ab omnibus specibus generis Paphiniae lobis lateralibus hypochilii terminantibus super epichilio in crestis undulatis et duibus projectionibus vermiculiferis in baside hypochilii.
 Gerlach &amp; Dressler. Lankesteriana 8 : 27-29, f. 2A-F. 2003.</t>
@@ -575,7 +591,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été récoltée à El Valle de Antón au Panamá dans la province de Coclé à 800-1000 m.
 Comme toutes les autres espèces de Paphinia elle vit dans des forêts très humides.
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce semble de culture difficile.
 </t>
